--- a/test/target.xlsx
+++ b/test/target.xlsx
@@ -9,6 +9,7 @@
     <sheet name="TopRows" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="try1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="try2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="try3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55078,4 +55079,7427 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2022-12-30 10:07:16</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>78484470</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>盱眙富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02503（JSJL-20211105-1）_x000D_
+10台 设备价的70%</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>371681.47</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>48318.59</t>
+        </is>
+      </c>
+      <c r="K1" t="n">
+        <v>420000.0599999999</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:40:06</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78484462</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>64424.78</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>8375.22</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>72800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:38:36</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78484460</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>山东上下永佳科技服务有限公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>77168.14</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10031.86</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>87200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:37:39</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78484459</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04965</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>253451.32</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>32948.68</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>286400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:36:21</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78484458</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>潢川县如意置业有限公司</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02060_x000D_
+4台设备价的39.38%</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>156134.27</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20297.45</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>176431.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:33:39</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78484457</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04949</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>51681.42</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6718.58</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>68</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:33:08</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78484456</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>57522.12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7477.88</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>69</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:32:11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78484455</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>132743.36</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>17256.64</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>70</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:31:24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>78484454</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04897</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>69911.50</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>9088.50</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>71</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:30:34</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>78484453</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04953</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>223451.33</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>29048.67</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>252500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>72</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:29:35</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>78484452</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01903</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>113274.34</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>14725.66</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>73</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:28:54</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>78484451</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04941</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>169911.50</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>22088.50</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>74</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:28:02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>78484450</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>福清市盛厚德电梯服务有限公司</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03626</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>75663.72</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>9836.28</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>75</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:26:53</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>78484449</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>苏州达正机电科技有限公司</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+DZ2210193</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>76106.19</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>9893.81</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>76</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:26:10</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>78484448</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>江苏优杰楼宇设备有限公司</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03049</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>94690.27</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12309.73</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>77</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:25:25</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>78484447</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>安徽安德林环保科技有限公司</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-02579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>49557.52</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>6442.48</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>78</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:24:32</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>78484446</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>安徽安德林环保科技有限公司</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-02579</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>69026.55</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>8973.45</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>79</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:23:36</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>78484445</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>郑玲芳</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03438</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>52389.38</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>6810.62</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>59200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>80</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:22:26</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>78484444</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>江苏金凌电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2020-02636</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>248230.09</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>32269.91</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>280500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>82</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:20:51</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>78484442</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>浙江成远机电设备有限公司</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-04340（FJHD-X-2022-11-08）</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>72566.37</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>9433.63</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>83</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:19:47</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>78484441</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>盱眙富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03433</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>123893.81</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>16106.19</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>84</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:18:54</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>78484440</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>浙江创融实业投资有限公司</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-05547_x000D_
+10台 设备价的2.5%</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>21415.93</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2784.07</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>85</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:16:16</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>78484439</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>江西瀚瑜电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03923</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>57876.11</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>7523.89</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>65400</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>86</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:15:31</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>78484438</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>无锡巨泰电梯销售有限公司</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03321</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>57079.65</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>7420.35</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>64500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>88</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:13:57</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>78484436</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>舒城友林建材销售有限公司</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-02560</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>51150.44</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>6649.56</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>57800</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>89</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:13:01</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>78484435</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>山东胜辉电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00758</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>181415.93</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>23584.07</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>90</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:11:46</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>78484434</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>江苏富诚电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03432</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>55929.20</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>7270.80</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>63200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>92</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:09:52</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>78484432</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>运城市瑞佳捷商贸有限公司</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02859</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>269026.55</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>34973.45</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>93</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:08:59</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>78484431</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>安徽中才机电设备有限公司</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-02549</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>65752.21</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>8547.79</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>74300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>95</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:07:04</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>78484429</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>云南沃克斯电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03417（HF2022-03405）</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>78761.06</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>10238.94</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>97</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:02:53</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>78484427</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>临沂龙展商贸有限公司</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00716</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>614601.78</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>79898.22</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>694500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>98</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:01:18</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>78484426</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>安徽现代电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-02550</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>85442.48</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>11107.52</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>96550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>99</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2022-12-27 18:00:03</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>78484425</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>郑玲芳</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03434</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>49557.52</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6442.48</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:58:12</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>78484424</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>武汉捷迅电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01926</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>71008.85</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>9231.15</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>80240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>101</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:57:05</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>78484423</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>吴江恒富电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-03440</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>94690.27</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>12309.73</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>102</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:56:06</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>78484422</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>江阴市菱电电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-03444</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>113274.34</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>14725.66</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>103</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:54:56</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>78484421</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>盱眙富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03429</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>328141.60</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>42658.40</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>370800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>104</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:53:44</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>78484420</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>陈惠杰</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04123</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>71238.94</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>9261.06</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>105</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:52:33</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>78484419</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>合肥蓝航电控技术有限公司</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件 V1.0_x000D_
+HF2022-02584（20221110-1）</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>71238.94</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>9261.06</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>106</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:51:04</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>78484418</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>盐城逸泰电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-03505</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>66371.68</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>8628.32</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>107</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:50:09</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>78484417</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>江西福奥电梯销售有限公司</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04124</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>68008.85</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>8841.15</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>76850</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>108</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:49:05</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>78484416</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>吴江恒富电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-03427</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>100884.96</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>13115.04</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>109</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:48:04</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>78484415</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>陈惠杰</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04127</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>84070.80</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>10929.20</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>110</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:47:09</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>78484414</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>盐城逸泰电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-03504</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>68141.59</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>8858.41</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:46:12</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>78484413</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>郑炜</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04132</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>66814.16</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>8685.84</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:45:03</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>78484412</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>盱眙富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02503（JSJL-20211105-1）_x000D_
+13台 设备价的70%</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>483185.84</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>62814.16</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>546000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>113</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:43:57</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>78484411</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>盱眙富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02503（JSJL-20211105-1）_x000D_
+18台 设备价的70%</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>738159.24</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>95960.70</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>834119.9399999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>114</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:39:02</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>78484410</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>郑炜</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04121</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>54424.78</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>7075.22</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>116</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:36:41</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>78484408</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>天水祥舟电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01883</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>132743.36</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>17256.64</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>117</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:35:24</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>78484407</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>安徽伟智机电设备有限公司</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-02481（HF2022-0629）_x000D_
+设备价的78.08%</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>360141.59</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>46818.41</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>406960</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>118</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:32:42</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>78484406</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>甘肃金雨达电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01859</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>773451.33</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>100548.67</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>874000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>119</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:30:39</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>78484405</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>甘肃恒通自动化成套电气设备有限公司</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01904</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>247787.61</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>32212.39</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>120</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:29:24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>78484404</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>吴江恒富电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-02561</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>185840.71</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>24159.29</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>121</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:28:09</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>78484403</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>台州市康民电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04298</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>77876.11</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>10123.89</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>122</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:27:02</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>78484402</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>江西宏茂机电有限公司</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03917_x000D_
+设备价的60%</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>150955.76</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>19624.24</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>170580</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>123</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:24:22</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>78484401</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>江西宏茂机电有限公司</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03916_x000D_
+设备价的33.59%</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>486654.86</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>63265.14</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>549920</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>125</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:17:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>78484399</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>衢州科竣电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-05866（HDQZKJ2022102401）</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>67256.64</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>8743.36</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>127</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:14:14</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>78484397</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>福建省诺成智能设备有限公司</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03675</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>68849.56</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>8950.44</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>77800</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>129</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:11:59</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>78484395</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>福建省诺成智能设备有限公司</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03699</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>52212.39</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>6787.61</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>130</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:08:53</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>78484394</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>福建省诺成智能设备有限公司</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04107</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>84955.75</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>11044.25</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>131</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:06:27</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>06678806</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-SD822032</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>103185.84</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>13414.16</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>116600</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>132</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:04:59</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>06678805</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-PK221285B</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>110530.97</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>14369.03</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>124900</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>133</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:03:35</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>06678804</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-KZ222578</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>324778.76</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>42221.24</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>367000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>134</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:01:39</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>06678803</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-HN322278</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>51061.95</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>6638.05</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>135</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2022-12-27 17:00:01</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>06678802</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-DO222082</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>202035.40</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>26264.60</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>228300</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>136</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:58:29</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>06678801</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-DO222081</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>63716.81</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>8283.19</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>137</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:56:58</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>06678800</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-DO222031</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>64247.79</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>8352.21</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>138</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:55:29</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>06678799</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-KZ222663</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>219115.04</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>28484.96</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>247600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>139</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:54:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>06678798</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-KZ222663</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>163539.82</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>21260.18</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>140</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:43:43</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>06678797</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-PK222151</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>53097.35</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>6902.65</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>141</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:41:36</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>06678796</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-ET122927</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>78672.57</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>10227.43</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>88900</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>142</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:39:37</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>06678795</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-ET122926</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>73893.81</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>9606.19</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>83500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>143</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:37:30</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>06678794</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-TZ222122</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>49115.04</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>6384.96</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>144</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:33:28</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>06678793</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>广西鸿宇凡电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-04950</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>123893.81</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>16106.19</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>145</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:27:34</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>06678792</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>南通富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI-TZ222182</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>53274.34</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>6925.66</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>60200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>146</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:11:18</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>06678791</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>长治市振邦电梯销售有限公司</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01870</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>877699.12</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>114100.88</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>991800</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>147</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2022-12-27 16:08:12</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>06678790</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>长治市振邦电梯销售有限公司</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01870</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>906371.69</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>117828.31</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1024200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>148</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:59:20</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>06678789</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>长治市振邦电梯销售有限公司</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01870</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>773805.31</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>100594.69</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>874400</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>149</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:55:57</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>78484393</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>宣汉县祥鑫机电设备有限责任公司</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04971</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>73451.33</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>9548.67</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>150</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:52:16</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>06678787</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>景然（上海）电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJIHD20220826-RU</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>73451.33</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>9548.67</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>151</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:49:59</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>06678786</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>景然（上海）电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>*搬运设备*自动扶梯</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士自动扶梯旁路变频控制软件V1.0_x000D_
+FUJIHD2022-ARU001</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>176991.16</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>23008.84</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>152</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:47:24</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>06678785</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>景然（上海）电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJIHD2022-ARU001</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>429203.54</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>55796.46</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>153</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:44:37</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>06678784</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>景然（上海）电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJIHD2022-ARU001</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>837168.15</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>108831.85</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>946000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>154</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:41:29</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>06678783</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>景然（上海）电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI20220919-HZU-1</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>963185.84</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>125214.16</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1088400</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>155</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:34:29</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>06678782</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>景然（上海）电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>*搬运设备*自动扶梯</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士自动扶梯旁路变频控制软件V1.0_x000D_
+FUJIHD20220613-PE-234-1</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>304424.76</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>39575.24</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>344000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>156</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:07:22</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>06678781</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>新疆三佳进出口贸易有限公司</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI2022-ASJ004</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>217699.12</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>28300.88</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>157</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:05:33</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>06678780</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>新疆三佳进出口贸易有限公司</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI2022-ASJ004</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>343805.31</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>44694.69</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>388500</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>158</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2022-12-27 15:03:34</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>06678779</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>新疆三佳进出口贸易有限公司</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI2022-ASJ004</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>343805.31</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>44694.69</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>388500</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>159</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2022-12-27 14:59:18</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>06678778</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>新疆三佳进出口贸易有限公司</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI2022-ASJ004</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>190265.48</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>24734.52</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>160</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2022-12-27 14:55:47</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>06678777</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>新疆三佳进出口贸易有限公司</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI2022-ASJ004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>217699.12</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>28300.88</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>161</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2022-12-27 14:52:41</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>06678776</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>新疆三佳进出口贸易有限公司</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJI2022-ASJ004</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>195575.22</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>25424.78</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>162</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2022-12-27 14:36:49</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>06678775</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>陕西锐德羸兰建设工程有限公司</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>转账 _x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03430 _x000D_
+50%设备_x000D_
+项目名称:昆明市西山区48号片区棚户区改造项目(山水锦园)A2-3地块烂尾楼收尾工程设计采购施工总承包项目_x000D_
+项目地址：昆明市西山区</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>671504.42</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>87295.58</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>758800</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>163</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2022-12-27 14:16:23</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>06678774</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>徐州富奥电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04140_x000D_
+项目名称：刘枢荣_x000D_
+项目地址：徐州市中山北路227号（西阁街86号）小区13#楼1单元</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>61946.90</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>8053.10</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>164</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2022-12-27 14:12:30</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>06678773</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>徐州富奥电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04141_x000D_
+项目名称：谢安兴_x000D_
+项目地址：徐州市中山北路227号（西阁街86号）小区2#楼3单元</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>69911.50</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>9088.50</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>166</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2022-12-27 13:45:53</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>06678771</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>潍坊乾生科技有限公司</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00627</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>412389.38</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>53610.62</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>466000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>167</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2022-12-26 16:23:19</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>06678770</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>上海栗海电子有限公司</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FUJIHD0711_x000D_
+1228</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>209601.77</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>27248.23</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>236850</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>168</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2022-12-26 16:11:46</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>06678768</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>上海艾柯福记电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+22ECOFUJI-VN-09_x000D_
+1202</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>78185.84</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>10164.16</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>88350</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>171</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2022-12-26 14:37:44</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>06678767</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>重庆北顺置业有限公司</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-01147_x000D_
+设备价的12%_x000D_
+项目地址：武隆区仙女山镇香叶路10号_x000D_
+项目地址：汇祥·云深处三期</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>96106.19</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>12493.81</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>108600</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>179</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2022-12-26 13:11:17</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>06678765</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>河南昭开机电设备有限公司</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01263</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>318584.07</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>41415.93</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>180</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2022-12-23 11:41:43</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>06678764</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>成都市立方安电梯有限责任公司</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含:恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-05010</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>127053.10</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>16516.90</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>143570</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>181</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2022-12-23 10:42:52</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>06678763</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>浙江省电力建设有限公司</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-03208</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>264424.78</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>34375.22</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>298800</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>182</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2022-12-22 15:54:01</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>06678762</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>中国电信股份有限公司黔西南分公司</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-03147</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>486800.00</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>63284.00</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>550084</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>187</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2022-12-22 14:10:38</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>06678757</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>安徽富申电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>*搬运设备*自动扶梯</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士自动扶梯旁路变频控制软件V1.0_x000D_
+HF2022-02595</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>176991.15</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>23008.85</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>188</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2022-12-22 14:08:09</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>06678756</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>缙云县兆盛建设有限公司</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-05886</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>93805.31</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>12194.69</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>189</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2022-12-22 14:02:44</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>06678755</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>浙江大昱建设有限公司</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-05884</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>93805.31</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>12194.69</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>190</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2022-12-22 14:00:05</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>06678754</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>浙江仙都建设有限公司</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-05885</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>93805.31</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>12194.69</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>193</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2022-12-22 13:47:35</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>06678751</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>临沂龙展商贸有限公司</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00715</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>311504.42</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>40495.58</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>352000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>194</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2022-12-22 13:46:45</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>06678750</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>临沂龙展商贸有限公司</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00715</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>307964.60</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>40035.40</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>195</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2022-12-22 13:45:25</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>06678749</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>临沂龙展商贸有限公司</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00715</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>192477.88</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>25022.12</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>217500</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>196</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2022-12-22 13:44:19</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>06678748</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>临沂龙展商贸有限公司</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00715</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>256637.17</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>33362.83</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>197</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2022-12-22 13:41:05</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>06678747</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>山东省福如日升建筑工程有限公司</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2020-02991</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>953238.94</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>123921.06</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1077160</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>198</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2022-12-22 13:32:58</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>06678746</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>山东省福如日升建筑工程有限公司</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00771</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>54867.26</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>7132.74</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>199</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2022-12-22 13:31:05</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>06678745</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>山东省福如日升建筑工程有限公司</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00735</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>69026.55</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>8973.45</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>201</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:35:11</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>06678741</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>温州市恒凌电梯销售有限公司</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-00045</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>67256.64</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>8743.36</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>203</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:31:24</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>06678740</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>黄骅市鑫菱电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-00158</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>590265.49</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>76734.51</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>667000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>204</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:28:25</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>06678739</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>黄骅市鑫菱电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02280</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>269469.03</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>35030.97</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>304500</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>205</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:27:09</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>06678738</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>黄骅市鑫菱电梯工程有限公司</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02280</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>761061.95</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>98938.05</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>860000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>206</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:23:19</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>06678737</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>河南诚威电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-01316</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>84070.80</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>10929.20</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>208</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:17:37</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>06678735</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>河南宇通实业有限公司</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01330</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>57522.12</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>7477.88</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>209</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:15:52</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>06678734</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>泰兴市欣达电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-03422</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>86725.66</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>11274.34</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>210</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:14:03</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>06678733</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>上海和菱机电设备有限公司</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-02588</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>58407.08</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>7592.92</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>211</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:12:31</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>06678732</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>上海高砼实业有限公司</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-02546</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>75486.73</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>9813.27</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>85300</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>213</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2022-12-21 16:09:17</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>06678730</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>临颍县居源置业有限公司</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02026_x000D_
+5%设备_x000D_
+项目名称：:临颍县人民路北城市棚户区（城中村）改造建设项目（湖畔丽园）B地块B1#楼_x000D_
+项目地址： 临颍县颍昌路西段北侧、京广路西侧</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>13238.94</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>1721.06</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>214</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2022-12-21 15:55:52</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>06678729</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>安徽富申电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2021-00652</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>168141.59</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>21858.41</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>216</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2022-12-21 15:39:19</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>06678727</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>方远建设集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-03273（ZJST-2021-ZX016）_x000D_
+7台 设备的74%_x000D_
+项目名称：台州市西廊港务有限公司汽车零部件强链补链及年产500万台高压清洗机项目一期工程（EPC模式）_x000D_
+项目地址：路桥区</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>569963.72</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>74095.28</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>644059</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>217</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2022-12-21 15:34:31</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>06678726</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>方远建设集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-03273（ZJST-2021-ZX016）_x000D_
+6台 设备的74%_x000D_
+项目名称：台州市西廊港务有限公司汽车零部件强链补链及年产500万台高压清洗机项目一期工程（EPC模式）_x000D_
+项目地址：路桥区</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>557193.81</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>72435.19</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>629629</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>218</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2022-12-21 15:28:51</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>06678725</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>方远建设集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2021-03273（ZJST-2021-ZX016）_x000D_
+2台 设备的74%_x000D_
+项目名称：台州市西廊港务有限公司汽车零部件强链补链及年产500万台高压清洗机项目一期工程（EPC模式）_x000D_
+项目地址：路桥区</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>418853.10</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>54450.90</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>473304</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>219</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2022-12-21 15:25:45</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>06678724</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>方远建设集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2021-03273（ZJST-2021-ZX016）_x000D_
+4台 设备的74%_x000D_
+项目名称：台州市西廊港务有限公司汽车零部件强链补链及年产500万台高压清洗机项目一期工程（EPC模式）_x000D_
+项目地址：路桥区</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>837706.19</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>108901.81</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>946608</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>224</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2022-12-21 14:24:55</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>06678721</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>中科智远信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02711_x000D_
+设备的25%_x000D_
+ZKZY211103-076_x000D_
+项目名称：军民融合雷达产业基地项目——1#2#厂房电梯采购、安装及售后_x000D_
+项目地址：响洪甸路与侯店路交口东北方向</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>111061.95</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>14438.05</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>125500</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>225</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2022-12-21 14:22:01</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>06678720</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>中科智远信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2021-02711_x000D_
+设备的25%_x000D_
+ZKZY211103-076_x000D_
+项目名称：军民融合雷达产业基地项目——1#2#厂房电梯采购、安装及售后_x000D_
+项目地址：响洪甸路与侯店路交口东北方向</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>23008.85</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2991.15</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>229</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2022-12-21 13:27:12</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>06678716</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>浙江乔兴建设集团有限公司</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04309_x000D_
+10%设备_x000D_
+项目名称：南浔区南浔镇2015-3号地块（批发市场）项目_x000D_
+项目地点：湖州市南浔区南浔镇</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>79469.03</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>10330.97</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>89800</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>230</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2022-12-21 13:03:14</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>06678714</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>国网四川省电力公司物资公司</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+订单编号：4000803348_x000D_
+合同编号：SGSCWZ00HTMM2205244</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>223200.00</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>29016.00</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>252216</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>231</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2022-12-21 11:15:08</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>78484381</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>周口莱茵电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-01298补充协议</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>3893.81</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>506.19</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>233</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2022-12-21 11:12:28</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>78484379</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>重庆建工第四建设有限责任公司</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-01005_x000D_
+设备的3%</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>6159.29</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>800.71</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>234</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2022-12-21 11:04:06</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>78484378</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>重庆更合机电有限公司</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2022-04905_x000D_
+1台 设备的10.12%</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>6773.45</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>880.55</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>235</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2022-12-21 10:15:05</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>78484377</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>中粮饲料（银川）有限公司</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2021-02872_x000D_
+设备的3%</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>6398.23</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>831.77</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>238</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2022-12-20 16:20:34</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>78484374</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>浙江华东工程建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2021-01336（AC190038Y-14-SG（02）-SG-16-EM（03））_x000D_
+24台 设备的22.26%</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>605398.23</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>78701.77</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>684100</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>239</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2022-12-20 15:19:47</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>06678713</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>盱眙富士电梯有限公司</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02503（JSJL-20211105-1）_x000D_
+3台设备的70%_x000D_
+项目名称：枕水人家三期 _x000D_
+项目地址：盱眙县宁徐路与淮河一段交叉口</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>111504.42</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>14495.58</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>240</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2022-12-20 14:26:35</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>78484373</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>浙江德丰科创集团有限公司</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2020-00336(DT20200306)_x000D_
+8台设备的5%</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>26725.66</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>3474.34</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>241</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2022-12-20 14:24:39</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>78484372</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>浙江创融实业投资有限公司</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2022-05547_x000D_
+9台 设备的20%</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>150265.48</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>19534.52</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>169800</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>245</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2022-12-20 14:16:09</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>78484368</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>天水保障性住房建设发展有限公司</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2020-00942（FJHD2020-03-25）_x000D_
+6台设备的20%</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>182654.86</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>23745.14</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>206400</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>246</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2022-12-20 14:12:25</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>78484367</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>天津蜂盛食品有限公司</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>*搬运设备*载货电梯</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士载货电梯变频控制软件V1.0_x000D_
+HF2020-03019_x000D_
+8台 设备的7.77%</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>143862.84</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>18702.16</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>162565</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>247</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2022-12-20 14:06:09</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>78484366</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>苏州市相城区人民政府漕湖街道办事处</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+HF2021-02518（JSSW2021-S-Y-002）_x000D_
+设备的40.27%</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>52743.36</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>6856.64</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>59600</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>248</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2022-12-20 13:55:31</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>78484365</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>陕西世丰实业集团有限公司</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>*搬运设备*乘客电梯</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>转账_x000D_
+含：恒达富士乘客电梯变频控制软件V1.0_x000D_
+FJHD-SXWNHY20181220_x000D_
+1台 设备的13.73%</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>20648.99</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2684.37</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>23333.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/test/target.xlsx
+++ b/test/target.xlsx
@@ -55087,7 +55087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55096,33 +55096,90 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>生产编号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>开票日期</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>发票号码</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>客户名称</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>货物名称</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>备注软件名称</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>不含税金额</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>税额</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>49</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>2022-12-30 10:07:16</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>78484470</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>盱眙富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -55130,204 +55187,204 @@
 10台 设备价的70%</t>
         </is>
       </c>
-      <c r="H1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>371681.47</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>48318.59</t>
         </is>
       </c>
-      <c r="K1" t="n">
+      <c r="K2" t="n">
         <v>420000.0599999999</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="n">
         <v>62</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>2022-12-27 18:40:06</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>78484462</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04989</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>64424.78</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>8375.22</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>72800</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>64</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>2022-12-27 18:38:36</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>78484460</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>山东上下永佳科技服务有限公司</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00754</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>77168.14</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>10031.86</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>87200</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>65</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>2022-12-27 18:37:39</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>78484459</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04965</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>253451.32</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>32948.68</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>286400</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>66</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>2022-12-27 18:36:21</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>78484458</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>潢川县如意置业有限公司</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -55335,867 +55392,867 @@
 4台设备价的39.38%</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>156134.27</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>20297.45</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>176431.72</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>67</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>2022-12-27 18:33:39</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>78484457</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04949</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>51681.42</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>6718.58</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>58400</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" t="n">
         <v>68</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2022-12-27 18:33:08</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>78484456</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04963</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>57522.12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>7477.88</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>65000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="9">
+      <c r="A9" t="n">
         <v>69</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>2022-12-27 18:32:11</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>78484455</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04956</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>132743.36</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>17256.64</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>150000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v>70</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>2022-12-27 18:31:24</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>78484454</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04897</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>69911.50</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>9088.50</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>79000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>71</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>2022-12-27 18:30:34</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>78484453</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04953</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>223451.33</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>29048.67</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>252500</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="12">
+      <c r="A12" t="n">
         <v>72</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2022-12-27 18:29:35</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>78484452</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01903</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>113274.34</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>14725.66</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>128000</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v>73</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>2022-12-27 18:28:54</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>78484451</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04941</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>169911.50</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>22088.50</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>192000</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>74</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>2022-12-27 18:28:02</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>78484450</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>福清市盛厚德电梯服务有限公司</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03626</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>75663.72</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>9836.28</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>85500</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>75</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>2022-12-27 18:26:53</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>78484449</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>苏州达正机电科技有限公司</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 DZ2210193</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>76106.19</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>9893.81</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>86000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>76</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>2022-12-27 18:26:10</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>78484448</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>江苏优杰楼宇设备有限公司</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03049</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>94690.27</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>12309.73</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>107000</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>77</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>2022-12-27 18:25:25</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>78484447</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>安徽安德林环保科技有限公司</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-02579</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>49557.52</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>6442.48</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>56000</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="18">
+      <c r="A18" t="n">
         <v>78</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>2022-12-27 18:24:32</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>78484446</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>安徽安德林环保科技有限公司</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-02579</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>69026.55</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>8973.45</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>78000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="19">
+      <c r="A19" t="n">
         <v>79</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>2022-12-27 18:23:36</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>78484445</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>郑玲芳</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03438</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>52389.38</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>6810.62</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>59200</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="20">
+      <c r="A20" t="n">
         <v>80</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>2022-12-27 18:22:26</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>78484444</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>江苏金凌电梯有限公司</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2020-02636</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>248230.09</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>32269.91</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>280500</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="21">
+      <c r="A21" t="n">
         <v>82</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>2022-12-27 18:20:51</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>78484442</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>浙江成远机电设备有限公司</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-04340（FJHD-X-2022-11-08）</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>72566.37</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>9433.63</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>82000</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="22">
+      <c r="A22" t="n">
         <v>83</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>2022-12-27 18:19:47</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>78484441</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>盱眙富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03433</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>123893.81</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>16106.19</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>140000</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="23">
+      <c r="A23" t="n">
         <v>84</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>2022-12-27 18:18:54</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>78484440</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>浙江创融实业投资有限公司</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -56203,1224 +56260,1224 @@
 10台 设备价的2.5%</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>21415.93</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>2784.07</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>24200</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="24">
+      <c r="A24" t="n">
         <v>85</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>2022-12-27 18:16:16</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>78484439</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>江西瀚瑜电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03923</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>57876.11</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>7523.89</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K24" t="n">
         <v>65400</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="25">
+      <c r="A25" t="n">
         <v>86</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>2022-12-27 18:15:31</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>78484438</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>无锡巨泰电梯销售有限公司</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03321</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>57079.65</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>7420.35</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>64500</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="26">
+      <c r="A26" t="n">
         <v>88</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>2022-12-27 18:13:57</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>78484436</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>舒城友林建材销售有限公司</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-02560</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>51150.44</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>6649.56</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>57800</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="27">
+      <c r="A27" t="n">
         <v>89</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>2022-12-27 18:13:01</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>78484435</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>山东胜辉电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00758</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>181415.93</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>23584.07</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>205000</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="28">
+      <c r="A28" t="n">
         <v>90</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>2022-12-27 18:11:46</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>78484434</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>江苏富诚电梯有限公司</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03432</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>55929.20</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>7270.80</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K28" t="n">
         <v>63200</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="29">
+      <c r="A29" t="n">
         <v>92</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>2022-12-27 18:09:52</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>78484432</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>运城市瑞佳捷商贸有限公司</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2021-02859</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>269026.55</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>34973.45</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>304000</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="30">
+      <c r="A30" t="n">
         <v>93</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>2022-12-27 18:08:59</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>78484431</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>安徽中才机电设备有限公司</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-02549</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>65752.21</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>8547.79</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>74300</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="31">
+      <c r="A31" t="n">
         <v>95</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>2022-12-27 18:07:04</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>78484429</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>云南沃克斯电梯有限公司</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03417（HF2022-03405）</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>78761.06</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>10238.94</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K31" t="n">
         <v>89000</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="32">
+      <c r="A32" t="n">
         <v>97</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>2022-12-27 18:02:53</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>78484427</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>临沂龙展商贸有限公司</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00716</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>614601.78</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>79898.22</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K32" t="n">
         <v>694500</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="33">
+      <c r="A33" t="n">
         <v>98</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>2022-12-27 18:01:18</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>78484426</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>安徽现代电梯有限公司</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-02550</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>85442.48</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>11107.52</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K33" t="n">
         <v>96550</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="34">
+      <c r="A34" t="n">
         <v>99</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>2022-12-27 18:00:03</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>78484425</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>郑玲芳</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03434</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>49557.52</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>6442.48</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K34" t="n">
         <v>56000</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="35">
+      <c r="A35" t="n">
         <v>100</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>2022-12-27 17:58:12</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>78484424</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>武汉捷迅电梯有限公司</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01926</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>71008.85</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>9231.15</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>80240</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="36">
+      <c r="A36" t="n">
         <v>101</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>2022-12-27 17:57:05</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>78484423</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>吴江恒富电梯有限公司</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-03440</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="inlineStr">
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>94690.27</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>12309.73</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K36" t="n">
         <v>107000</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="37">
+      <c r="A37" t="n">
         <v>102</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>2022-12-27 17:56:06</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>78484422</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>江阴市菱电电梯有限公司</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-03444</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>113274.34</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>14725.66</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K37" t="n">
         <v>128000</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="38">
+      <c r="A38" t="n">
         <v>103</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>2022-12-27 17:54:56</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>78484421</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>盱眙富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03429</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="inlineStr">
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>328141.60</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>42658.40</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K38" t="n">
         <v>370800</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="39">
+      <c r="A39" t="n">
         <v>104</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>2022-12-27 17:53:44</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>78484420</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>陈惠杰</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04123</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>71238.94</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>9261.06</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="K39" t="n">
         <v>80500</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="40">
+      <c r="A40" t="n">
         <v>105</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>2022-12-27 17:52:33</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>78484419</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>合肥蓝航电控技术有限公司</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件 V1.0_x000D_
 HF2022-02584（20221110-1）</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>71238.94</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>9261.06</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="K40" t="n">
         <v>80500</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="41">
+      <c r="A41" t="n">
         <v>106</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>2022-12-27 17:51:04</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>78484418</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>盐城逸泰电梯有限公司</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-03505</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="inlineStr">
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>66371.68</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>8628.32</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="K41" t="n">
         <v>75000</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="42">
+      <c r="A42" t="n">
         <v>107</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>2022-12-27 17:50:09</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>78484417</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>江西福奥电梯销售有限公司</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04124</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>68008.85</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>8841.15</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="K42" t="n">
         <v>76850</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="43">
+      <c r="A43" t="n">
         <v>108</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>2022-12-27 17:49:05</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>78484416</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>吴江恒富电梯有限公司</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-03427</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>100884.96</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>13115.04</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="K43" t="n">
         <v>114000</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="44">
+      <c r="A44" t="n">
         <v>109</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>2022-12-27 17:48:04</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>78484415</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>陈惠杰</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04127</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="inlineStr">
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>84070.80</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>10929.20</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="K44" t="n">
         <v>95000</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="45">
+      <c r="A45" t="n">
         <v>110</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>2022-12-27 17:47:09</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>78484414</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>盐城逸泰电梯有限公司</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-03504</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="inlineStr">
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>68141.59</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>8858.41</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="K45" t="n">
         <v>77000</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="46">
+      <c r="A46" t="n">
         <v>111</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>2022-12-27 17:46:12</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>78484413</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>郑炜</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04132</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>66814.16</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>8685.84</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="K46" t="n">
         <v>75500</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="47">
+      <c r="A47" t="n">
         <v>112</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>2022-12-27 17:45:03</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>78484412</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>盱眙富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -57428,51 +57485,51 @@
 13台 设备价的70%</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>483185.84</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>62814.16</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>546000</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="48">
+      <c r="A48" t="n">
         <v>113</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>2022-12-27 17:43:57</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>78484411</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>盱眙富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -57480,153 +57537,153 @@
 18台 设备价的70%</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>738159.24</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>95960.70</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="K48" t="n">
         <v>834119.9399999999</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="49">
+      <c r="A49" t="n">
         <v>114</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>2022-12-27 17:39:02</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>78484410</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>郑炜</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04121</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>54424.78</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>7075.22</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>61500</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="50">
+      <c r="A50" t="n">
         <v>116</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>2022-12-27 17:36:41</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>78484408</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>天水祥舟电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01883</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>132743.36</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>17256.64</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="K50" t="n">
         <v>150000</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="51">
+      <c r="A51" t="n">
         <v>117</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>2022-12-27 17:35:24</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>78484407</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>安徽伟智机电设备有限公司</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -57634,255 +57691,255 @@
 设备价的78.08%</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>360141.59</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>46818.41</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="K51" t="n">
         <v>406960</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="52">
+      <c r="A52" t="n">
         <v>118</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>2022-12-27 17:32:42</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>78484406</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>甘肃金雨达电梯有限公司</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01859</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>773451.33</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>100548.67</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="K52" t="n">
         <v>874000</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="53">
+      <c r="A53" t="n">
         <v>119</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>2022-12-27 17:30:39</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>78484405</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>甘肃恒通自动化成套电气设备有限公司</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01904</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="inlineStr">
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>247787.61</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>32212.39</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="K53" t="n">
         <v>280000</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="54">
+      <c r="A54" t="n">
         <v>120</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>2022-12-27 17:29:24</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>78484404</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>吴江恒富电梯有限公司</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-02561</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>185840.71</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>24159.29</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="K54" t="n">
         <v>210000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="55">
+      <c r="A55" t="n">
         <v>121</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>2022-12-27 17:28:09</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>78484403</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>台州市康民电梯有限公司</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04298</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="inlineStr">
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>77876.11</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>10123.89</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="K55" t="n">
         <v>88000</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="56">
+      <c r="A56" t="n">
         <v>122</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>2022-12-27 17:27:02</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>78484402</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>江西宏茂机电有限公司</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -57890,51 +57947,51 @@
 设备价的60%</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>150955.76</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>19624.24</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="K56" t="n">
         <v>170580</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="57">
+      <c r="A57" t="n">
         <v>123</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>2022-12-27 17:24:22</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>78484401</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>江西宏茂机电有限公司</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -57942,1836 +57999,1836 @@
 设备价的33.59%</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="inlineStr">
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>486654.86</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>63265.14</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="K57" t="n">
         <v>549920</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="58">
+      <c r="A58" t="n">
         <v>125</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>2022-12-27 17:17:00</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>78484399</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>衢州科竣电梯有限公司</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-05866（HDQZKJ2022102401）</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>67256.64</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>8743.36</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="K58" t="n">
         <v>76000</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="59">
+      <c r="A59" t="n">
         <v>127</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>2022-12-27 17:14:14</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>78484397</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>福建省诺成智能设备有限公司</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03675</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="inlineStr">
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>68849.56</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>8950.44</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="K59" t="n">
         <v>77800</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="60">
+      <c r="A60" t="n">
         <v>129</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>2022-12-27 17:11:59</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>78484395</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>福建省诺成智能设备有限公司</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03699</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="inlineStr">
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>52212.39</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>6787.61</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="K60" t="n">
         <v>59000</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="61">
+      <c r="A61" t="n">
         <v>130</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>2022-12-27 17:08:53</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>78484394</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>福建省诺成智能设备有限公司</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04107</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="inlineStr">
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>84955.75</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>11044.25</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="K61" t="n">
         <v>96000</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="62">
+      <c r="A62" t="n">
         <v>131</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>2022-12-27 17:06:27</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>06678806</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-SD822032</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="inlineStr">
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>103185.84</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>13414.16</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="K62" t="n">
         <v>116600</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="63">
+      <c r="A63" t="n">
         <v>132</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>2022-12-27 17:04:59</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>06678805</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-PK221285B</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="inlineStr">
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>110530.97</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>14369.03</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="K63" t="n">
         <v>124900</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="64">
+      <c r="A64" t="n">
         <v>133</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>2022-12-27 17:03:35</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>06678804</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-KZ222578</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="inlineStr">
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>324778.76</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>42221.24</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="K64" t="n">
         <v>367000</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="65">
+      <c r="A65" t="n">
         <v>134</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>2022-12-27 17:01:39</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>06678803</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-HN322278</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="inlineStr">
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>51061.95</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>6638.05</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="K65" t="n">
         <v>57700</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="66">
+      <c r="A66" t="n">
         <v>135</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>2022-12-27 17:00:01</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>06678802</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-DO222082</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="inlineStr">
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>202035.40</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>26264.60</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="K66" t="n">
         <v>228300</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="67">
+      <c r="A67" t="n">
         <v>136</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>2022-12-27 16:58:29</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>06678801</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-DO222081</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="inlineStr">
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>63716.81</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>8283.19</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="K67" t="n">
         <v>72000</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="68">
+      <c r="A68" t="n">
         <v>137</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>2022-12-27 16:56:58</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>06678800</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-DO222031</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="inlineStr">
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>64247.79</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>8352.21</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="K68" t="n">
         <v>72600</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="69">
+      <c r="A69" t="n">
         <v>138</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>2022-12-27 16:55:29</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>06678799</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-KZ222663</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="inlineStr">
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>219115.04</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>28484.96</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="K69" t="n">
         <v>247600</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="70">
+      <c r="A70" t="n">
         <v>139</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>2022-12-27 16:54:00</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>06678798</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-KZ222663</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="inlineStr">
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>163539.82</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>21260.18</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="K70" t="n">
         <v>184800</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="71">
+      <c r="A71" t="n">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>2022-12-27 16:43:43</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>06678797</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-PK222151</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="inlineStr">
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>53097.35</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>6902.65</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="K71" t="n">
         <v>60000</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="72">
+      <c r="A72" t="n">
         <v>141</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>2022-12-27 16:41:36</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>06678796</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-ET122927</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="inlineStr">
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>78672.57</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>10227.43</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="K72" t="n">
         <v>88900</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="73">
+      <c r="A73" t="n">
         <v>142</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>2022-12-27 16:39:37</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>06678795</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-ET122926</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="inlineStr">
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>73893.81</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>9606.19</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="K73" t="n">
         <v>83500</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="74">
+      <c r="A74" t="n">
         <v>143</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>2022-12-27 16:37:30</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>06678794</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-TZ222122</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="inlineStr">
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>49115.04</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>6384.96</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="K74" t="n">
         <v>55500</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="75">
+      <c r="A75" t="n">
         <v>144</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>2022-12-27 16:33:28</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>06678793</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>广西鸿宇凡电梯有限公司</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-04950</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="inlineStr">
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>123893.81</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>16106.19</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="K75" t="n">
         <v>140000</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="76">
+      <c r="A76" t="n">
         <v>145</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>2022-12-27 16:27:34</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>06678792</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>南通富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI-TZ222182</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="inlineStr">
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>53274.34</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>6925.66</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="K76" t="n">
         <v>60200</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="77">
+      <c r="A77" t="n">
         <v>146</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>2022-12-27 16:11:18</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>06678791</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>长治市振邦电梯销售有限公司</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01870</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="inlineStr">
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>877699.12</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>114100.88</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="K77" t="n">
         <v>991800</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="78">
+      <c r="A78" t="n">
         <v>147</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>2022-12-27 16:08:12</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>06678790</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>长治市振邦电梯销售有限公司</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01870</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="inlineStr">
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>906371.69</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>117828.31</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="K78" t="n">
         <v>1024200</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="79">
+      <c r="A79" t="n">
         <v>148</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>2022-12-27 15:59:20</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>06678789</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>长治市振邦电梯销售有限公司</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01870</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="inlineStr">
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>773805.31</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>100594.69</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="K79" t="n">
         <v>874400</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="80">
+      <c r="A80" t="n">
         <v>149</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>2022-12-27 15:55:57</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>78484393</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>宣汉县祥鑫机电设备有限责任公司</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-04971</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="inlineStr">
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>73451.33</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>9548.67</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="K80" t="n">
         <v>83000</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="81">
+      <c r="A81" t="n">
         <v>150</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>2022-12-27 15:52:16</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>06678787</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>景然（上海）电梯有限公司</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJIHD20220826-RU</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="inlineStr">
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>73451.33</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>9548.67</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="K81" t="n">
         <v>83000</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="82">
+      <c r="A82" t="n">
         <v>151</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>2022-12-27 15:49:59</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>06678786</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>景然（上海）电梯有限公司</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>*搬运设备*自动扶梯</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士自动扶梯旁路变频控制软件V1.0_x000D_
 FUJIHD2022-ARU001</t>
         </is>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="inlineStr">
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>176991.16</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>23008.84</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="K82" t="n">
         <v>200000</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="83">
+      <c r="A83" t="n">
         <v>152</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B83" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>2022-12-27 15:47:24</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>06678785</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>景然（上海）电梯有限公司</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJIHD2022-ARU001</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="inlineStr">
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>429203.54</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>55796.46</t>
         </is>
       </c>
-      <c r="K82" t="n">
+      <c r="K83" t="n">
         <v>485000</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="84">
+      <c r="A84" t="n">
         <v>153</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B84" t="n">
         <v>0</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>2022-12-27 15:44:37</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>06678784</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>景然（上海）电梯有限公司</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJIHD2022-ARU001</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="inlineStr">
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>837168.15</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>108831.85</t>
         </is>
       </c>
-      <c r="K83" t="n">
+      <c r="K84" t="n">
         <v>946000</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="85">
+      <c r="A85" t="n">
         <v>154</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>2022-12-27 15:41:29</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>06678783</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>景然（上海）电梯有限公司</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI20220919-HZU-1</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="inlineStr">
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>963185.84</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>125214.16</t>
         </is>
       </c>
-      <c r="K84" t="n">
+      <c r="K85" t="n">
         <v>1088400</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="86">
+      <c r="A86" t="n">
         <v>155</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>2022-12-27 15:34:29</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>06678782</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>景然（上海）电梯有限公司</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>*搬运设备*自动扶梯</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士自动扶梯旁路变频控制软件V1.0_x000D_
 FUJIHD20220613-PE-234-1</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="inlineStr">
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>304424.76</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>39575.24</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="K86" t="n">
         <v>344000</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="87">
+      <c r="A87" t="n">
         <v>156</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>2022-12-27 15:07:22</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>06678781</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>新疆三佳进出口贸易有限公司</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI2022-ASJ004</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="inlineStr">
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>217699.12</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>28300.88</t>
         </is>
       </c>
-      <c r="K86" t="n">
+      <c r="K87" t="n">
         <v>246000</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="88">
+      <c r="A88" t="n">
         <v>157</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>2022-12-27 15:05:33</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>06678780</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>新疆三佳进出口贸易有限公司</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI2022-ASJ004</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="inlineStr">
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>343805.31</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>44694.69</t>
         </is>
       </c>
-      <c r="K87" t="n">
+      <c r="K88" t="n">
         <v>388500</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="89">
+      <c r="A89" t="n">
         <v>158</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>2022-12-27 15:03:34</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>06678779</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>新疆三佳进出口贸易有限公司</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI2022-ASJ004</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="inlineStr">
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>343805.31</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>44694.69</t>
         </is>
       </c>
-      <c r="K88" t="n">
+      <c r="K89" t="n">
         <v>388500</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="90">
+      <c r="A90" t="n">
         <v>159</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>2022-12-27 14:59:18</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>06678778</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>新疆三佳进出口贸易有限公司</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI2022-ASJ004</t>
         </is>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="inlineStr">
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>190265.48</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>24734.52</t>
         </is>
       </c>
-      <c r="K89" t="n">
+      <c r="K90" t="n">
         <v>215000</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="91">
+      <c r="A91" t="n">
         <v>160</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>2022-12-27 14:55:47</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>06678777</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>新疆三佳进出口贸易有限公司</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI2022-ASJ004</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="inlineStr">
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>217699.12</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>28300.88</t>
         </is>
       </c>
-      <c r="K90" t="n">
+      <c r="K91" t="n">
         <v>246000</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="92">
+      <c r="A92" t="n">
         <v>161</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>2022-12-27 14:52:41</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>06678776</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>新疆三佳进出口贸易有限公司</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 FUJI2022-ASJ004</t>
         </is>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="inlineStr">
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>195575.22</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>25424.78</t>
         </is>
       </c>
-      <c r="K91" t="n">
+      <c r="K92" t="n">
         <v>221000</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="93">
+      <c r="A93" t="n">
         <v>162</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>2022-12-27 14:36:49</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>06678775</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>陕西锐德羸兰建设工程有限公司</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>转账 _x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -59781,51 +59838,51 @@
 项目地址：昆明市西山区</t>
         </is>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="inlineStr">
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>671504.42</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>87295.58</t>
         </is>
       </c>
-      <c r="K92" t="n">
+      <c r="K93" t="n">
         <v>758800</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="94">
+      <c r="A94" t="n">
         <v>163</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>2022-12-27 14:16:23</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>06678774</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>徐州富奥电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -59834,51 +59891,51 @@
 项目地址：徐州市中山北路227号（西阁街86号）小区13#楼1单元</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="inlineStr">
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>61946.90</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>8053.10</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="K94" t="n">
         <v>70000</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="95">
+      <c r="A95" t="n">
         <v>164</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>2022-12-27 14:12:30</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>06678773</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>徐州富奥电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -59887,102 +59944,102 @@
 项目地址：徐州市中山北路227号（西阁街86号）小区2#楼3单元</t>
         </is>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="inlineStr">
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>69911.50</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>9088.50</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="K95" t="n">
         <v>79000</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="96">
+      <c r="A96" t="n">
         <v>166</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>2022-12-27 13:45:53</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>06678771</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>潍坊乾生科技有限公司</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00627</t>
         </is>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="inlineStr">
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>412389.38</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>53610.62</t>
         </is>
       </c>
-      <c r="K95" t="n">
+      <c r="K96" t="n">
         <v>466000</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="97">
+      <c r="A97" t="n">
         <v>167</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>2022-12-26 16:23:19</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>06678770</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>上海栗海电子有限公司</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -59990,51 +60047,51 @@
 1228</t>
         </is>
       </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="inlineStr">
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>209601.77</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>27248.23</t>
         </is>
       </c>
-      <c r="K96" t="n">
+      <c r="K97" t="n">
         <v>236850</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="98">
+      <c r="A98" t="n">
         <v>168</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>2022-12-26 16:11:46</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>06678768</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>上海艾柯福记电梯有限公司</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -60042,51 +60099,51 @@
 1202</t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="inlineStr">
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>78185.84</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>10164.16</t>
         </is>
       </c>
-      <c r="K97" t="n">
+      <c r="K98" t="n">
         <v>88350</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="99">
+      <c r="A99" t="n">
         <v>171</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>2022-12-26 14:37:44</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>06678767</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>重庆北顺置业有限公司</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -60096,1275 +60153,1275 @@
 项目地址：汇祥·云深处三期</t>
         </is>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="inlineStr">
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>96106.19</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>12493.81</t>
         </is>
       </c>
-      <c r="K98" t="n">
+      <c r="K99" t="n">
         <v>108600</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="100">
+      <c r="A100" t="n">
         <v>179</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>2022-12-26 13:11:17</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>06678765</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>河南昭开机电设备有限公司</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01263</t>
         </is>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="inlineStr">
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>318584.07</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>41415.93</t>
         </is>
       </c>
-      <c r="K99" t="n">
+      <c r="K100" t="n">
         <v>360000</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="101">
+      <c r="A101" t="n">
         <v>180</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B101" t="n">
         <v>0</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>2022-12-23 11:41:43</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>06678764</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>成都市立方安电梯有限责任公司</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>转账_x000D_
 含:恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-05010</t>
         </is>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="inlineStr">
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>127053.10</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>16516.90</t>
         </is>
       </c>
-      <c r="K100" t="n">
+      <c r="K101" t="n">
         <v>143570</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="102">
+      <c r="A102" t="n">
         <v>181</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B102" t="n">
         <v>0</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>2022-12-23 10:42:52</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>06678763</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>浙江省电力建设有限公司</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2021-03208</t>
         </is>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="inlineStr">
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>264424.78</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>34375.22</t>
         </is>
       </c>
-      <c r="K101" t="n">
+      <c r="K102" t="n">
         <v>298800</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="103">
+      <c r="A103" t="n">
         <v>182</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B103" t="n">
         <v>0</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>2022-12-22 15:54:01</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>06678762</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>中国电信股份有限公司黔西南分公司</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-03147</t>
         </is>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="inlineStr">
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>486800.00</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>63284.00</t>
         </is>
       </c>
-      <c r="K102" t="n">
+      <c r="K103" t="n">
         <v>550084</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="104">
+      <c r="A104" t="n">
         <v>187</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B104" t="n">
         <v>0</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>2022-12-22 14:10:38</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>06678757</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>安徽富申电梯有限公司</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>*搬运设备*自动扶梯</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士自动扶梯旁路变频控制软件V1.0_x000D_
 HF2022-02595</t>
         </is>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="inlineStr">
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>176991.15</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>23008.85</t>
         </is>
       </c>
-      <c r="K103" t="n">
+      <c r="K104" t="n">
         <v>200000</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="105">
+      <c r="A105" t="n">
         <v>188</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B105" t="n">
         <v>0</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>2022-12-22 14:08:09</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>06678756</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>缙云县兆盛建设有限公司</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-05886</t>
         </is>
       </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="inlineStr">
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>93805.31</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>12194.69</t>
         </is>
       </c>
-      <c r="K104" t="n">
+      <c r="K105" t="n">
         <v>106000</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="106">
+      <c r="A106" t="n">
         <v>189</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B106" t="n">
         <v>0</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>2022-12-22 14:02:44</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>06678755</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>浙江大昱建设有限公司</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-05884</t>
         </is>
       </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="inlineStr">
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>93805.31</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>12194.69</t>
         </is>
       </c>
-      <c r="K105" t="n">
+      <c r="K106" t="n">
         <v>106000</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="107">
+      <c r="A107" t="n">
         <v>190</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B107" t="n">
         <v>0</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>2022-12-22 14:00:05</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>06678754</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>浙江仙都建设有限公司</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-05885</t>
         </is>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="inlineStr">
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>93805.31</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>12194.69</t>
         </is>
       </c>
-      <c r="K106" t="n">
+      <c r="K107" t="n">
         <v>106000</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="108">
+      <c r="A108" t="n">
         <v>193</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B108" t="n">
         <v>0</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>2022-12-22 13:47:35</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>06678751</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>临沂龙展商贸有限公司</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00715</t>
         </is>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="inlineStr">
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>311504.42</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>40495.58</t>
         </is>
       </c>
-      <c r="K107" t="n">
+      <c r="K108" t="n">
         <v>352000</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="109">
+      <c r="A109" t="n">
         <v>194</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B109" t="n">
         <v>0</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>2022-12-22 13:46:45</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>06678750</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>临沂龙展商贸有限公司</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00715</t>
         </is>
       </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="inlineStr">
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>307964.60</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>40035.40</t>
         </is>
       </c>
-      <c r="K108" t="n">
+      <c r="K109" t="n">
         <v>348000</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="110">
+      <c r="A110" t="n">
         <v>195</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B110" t="n">
         <v>0</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>2022-12-22 13:45:25</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>06678749</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>临沂龙展商贸有限公司</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00715</t>
         </is>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="inlineStr">
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>192477.88</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>25022.12</t>
         </is>
       </c>
-      <c r="K109" t="n">
+      <c r="K110" t="n">
         <v>217500</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="111">
+      <c r="A111" t="n">
         <v>196</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B111" t="n">
         <v>0</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>2022-12-22 13:44:19</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>06678748</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>临沂龙展商贸有限公司</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00715</t>
         </is>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="inlineStr">
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>256637.17</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>33362.83</t>
         </is>
       </c>
-      <c r="K110" t="n">
+      <c r="K111" t="n">
         <v>290000</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="112">
+      <c r="A112" t="n">
         <v>197</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B112" t="n">
         <v>0</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>2022-12-22 13:41:05</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>06678747</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>山东省福如日升建筑工程有限公司</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2020-02991</t>
         </is>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="inlineStr">
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>953238.94</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>123921.06</t>
         </is>
       </c>
-      <c r="K111" t="n">
+      <c r="K112" t="n">
         <v>1077160</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="113">
+      <c r="A113" t="n">
         <v>198</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B113" t="n">
         <v>0</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>2022-12-22 13:32:58</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>06678746</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>山东省福如日升建筑工程有限公司</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00771</t>
         </is>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="inlineStr">
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>54867.26</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>7132.74</t>
         </is>
       </c>
-      <c r="K112" t="n">
+      <c r="K113" t="n">
         <v>62000</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="114">
+      <c r="A114" t="n">
         <v>199</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B114" t="n">
         <v>0</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>2022-12-22 13:31:05</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>06678745</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>山东省福如日升建筑工程有限公司</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00735</t>
         </is>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="inlineStr">
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>69026.55</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>8973.45</t>
         </is>
       </c>
-      <c r="K113" t="n">
+      <c r="K114" t="n">
         <v>78000</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="115">
+      <c r="A115" t="n">
         <v>201</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B115" t="n">
         <v>0</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>2022-12-21 16:35:11</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>06678741</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>温州市恒凌电梯销售有限公司</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2021-00045</t>
         </is>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="inlineStr">
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>67256.64</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>8743.36</t>
         </is>
       </c>
-      <c r="K114" t="n">
+      <c r="K115" t="n">
         <v>76000</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="116">
+      <c r="A116" t="n">
         <v>203</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B116" t="n">
         <v>0</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>2022-12-21 16:31:24</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>06678740</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>黄骅市鑫菱电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-00158</t>
         </is>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="inlineStr">
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>590265.49</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>76734.51</t>
         </is>
       </c>
-      <c r="K115" t="n">
+      <c r="K116" t="n">
         <v>667000</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="117">
+      <c r="A117" t="n">
         <v>204</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B117" t="n">
         <v>0</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>2022-12-21 16:28:25</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>06678739</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>黄骅市鑫菱电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2021-02280</t>
         </is>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="inlineStr">
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>269469.03</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>35030.97</t>
         </is>
       </c>
-      <c r="K116" t="n">
+      <c r="K117" t="n">
         <v>304500</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="118">
+      <c r="A118" t="n">
         <v>205</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>0</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>2022-12-21 16:27:09</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>06678738</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>黄骅市鑫菱电梯工程有限公司</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2021-02280</t>
         </is>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="inlineStr">
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>761061.95</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>98938.05</t>
         </is>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>860000</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="119">
+      <c r="A119" t="n">
         <v>206</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>0</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>2022-12-21 16:23:19</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>06678737</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>河南诚威电梯有限公司</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-01316</t>
         </is>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="inlineStr">
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>84070.80</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>10929.20</t>
         </is>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>95000</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="120">
+      <c r="A120" t="n">
         <v>208</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B120" t="n">
         <v>0</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>2022-12-21 16:17:37</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>06678735</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>河南宇通实业有限公司</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01330</t>
         </is>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="inlineStr">
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>57522.12</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>7477.88</t>
         </is>
       </c>
-      <c r="K119" t="n">
+      <c r="K120" t="n">
         <v>65000</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="121">
+      <c r="A121" t="n">
         <v>209</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B121" t="n">
         <v>0</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>2022-12-21 16:15:52</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>06678734</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>泰兴市欣达电梯有限公司</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2022-03422</t>
         </is>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="inlineStr">
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>86725.66</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>11274.34</t>
         </is>
       </c>
-      <c r="K120" t="n">
+      <c r="K121" t="n">
         <v>98000</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="122">
+      <c r="A122" t="n">
         <v>210</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B122" t="n">
         <v>0</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>2022-12-21 16:14:03</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>06678733</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>上海和菱机电设备有限公司</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-02588</t>
         </is>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="inlineStr">
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>58407.08</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>7592.92</t>
         </is>
       </c>
-      <c r="K121" t="n">
+      <c r="K122" t="n">
         <v>66000</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="123">
+      <c r="A123" t="n">
         <v>211</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B123" t="n">
         <v>0</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>2022-12-21 16:12:31</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>06678732</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>上海高砼实业有限公司</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-02546</t>
         </is>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="inlineStr">
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>75486.73</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>9813.27</t>
         </is>
       </c>
-      <c r="K122" t="n">
+      <c r="K123" t="n">
         <v>85300</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="124">
+      <c r="A124" t="n">
         <v>213</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B124" t="n">
         <v>0</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>2022-12-21 16:09:17</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>06678730</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>临颍县居源置业有限公司</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -61374,102 +61431,102 @@
 项目地址： 临颍县颍昌路西段北侧、京广路西侧</t>
         </is>
       </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="inlineStr">
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>13238.94</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>1721.06</t>
         </is>
       </c>
-      <c r="K123" t="n">
+      <c r="K124" t="n">
         <v>14960</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="125">
+      <c r="A125" t="n">
         <v>214</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B125" t="n">
         <v>0</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>2022-12-21 15:55:52</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>06678729</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>安徽富申电梯有限公司</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
 HF2021-00652</t>
         </is>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="inlineStr">
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>168141.59</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>21858.41</t>
         </is>
       </c>
-      <c r="K124" t="n">
+      <c r="K125" t="n">
         <v>190000</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="126">
+      <c r="A126" t="n">
         <v>216</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B126" t="n">
         <v>0</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>2022-12-21 15:39:19</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>06678727</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>方远建设集团股份有限公司</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -61479,51 +61536,51 @@
 项目地址：路桥区</t>
         </is>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="inlineStr">
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>569963.72</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>74095.28</t>
         </is>
       </c>
-      <c r="K125" t="n">
+      <c r="K126" t="n">
         <v>644059</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="127">
+      <c r="A127" t="n">
         <v>217</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B127" t="n">
         <v>0</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>2022-12-21 15:34:31</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>06678726</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>方远建设集团股份有限公司</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -61533,51 +61590,51 @@
 项目地址：路桥区</t>
         </is>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="inlineStr">
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>557193.81</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>72435.19</t>
         </is>
       </c>
-      <c r="K126" t="n">
+      <c r="K127" t="n">
         <v>629629</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="128">
+      <c r="A128" t="n">
         <v>218</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B128" t="n">
         <v>0</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>2022-12-21 15:28:51</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>06678725</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>方远建设集团股份有限公司</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -61587,51 +61644,51 @@
 项目地址：路桥区</t>
         </is>
       </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="inlineStr">
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>418853.10</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>54450.90</t>
         </is>
       </c>
-      <c r="K127" t="n">
+      <c r="K128" t="n">
         <v>473304</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="129">
+      <c r="A129" t="n">
         <v>219</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B129" t="n">
         <v>0</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>2022-12-21 15:25:45</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>06678724</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>方远建设集团股份有限公司</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -61641,51 +61698,51 @@
 项目地址：路桥区</t>
         </is>
       </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="inlineStr">
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>837706.19</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>108901.81</t>
         </is>
       </c>
-      <c r="K128" t="n">
+      <c r="K129" t="n">
         <v>946608</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="130">
+      <c r="A130" t="n">
         <v>224</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B130" t="n">
         <v>0</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>2022-12-21 14:24:55</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>06678721</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>中科智远信息科技有限公司</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -61696,51 +61753,51 @@
 项目地址：响洪甸路与侯店路交口东北方向</t>
         </is>
       </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="inlineStr">
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>111061.95</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>14438.05</t>
         </is>
       </c>
-      <c r="K129" t="n">
+      <c r="K130" t="n">
         <v>125500</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="131">
+      <c r="A131" t="n">
         <v>225</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B131" t="n">
         <v>0</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>2022-12-21 14:22:01</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>06678720</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>中科智远信息科技有限公司</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -61751,51 +61808,51 @@
 项目地址：响洪甸路与侯店路交口东北方向</t>
         </is>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="inlineStr">
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>23008.85</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>2991.15</t>
         </is>
       </c>
-      <c r="K130" t="n">
+      <c r="K131" t="n">
         <v>26000</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="132">
+      <c r="A132" t="n">
         <v>229</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B132" t="n">
         <v>0</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>2022-12-21 13:27:12</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>06678716</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>浙江乔兴建设集团有限公司</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -61805,51 +61862,51 @@
 项目地点：湖州市南浔区南浔镇</t>
         </is>
       </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="inlineStr">
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>79469.03</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>10330.97</t>
         </is>
       </c>
-      <c r="K131" t="n">
+      <c r="K132" t="n">
         <v>89800</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="133">
+      <c r="A133" t="n">
         <v>230</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B133" t="n">
         <v>0</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>2022-12-21 13:03:14</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>06678714</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>国网四川省电力公司物资公司</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -61857,102 +61914,102 @@
 合同编号：SGSCWZ00HTMM2205244</t>
         </is>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="inlineStr">
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>223200.00</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>29016.00</t>
         </is>
       </c>
-      <c r="K132" t="n">
+      <c r="K133" t="n">
         <v>252216</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="134">
+      <c r="A134" t="n">
         <v>231</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B134" t="n">
         <v>0</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>2022-12-21 11:15:08</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>78484381</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>周口莱茵电梯有限公司</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
 HF2022-01298补充协议</t>
         </is>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="inlineStr">
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>3893.81</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>506.19</t>
         </is>
       </c>
-      <c r="K133" t="n">
+      <c r="K134" t="n">
         <v>4400</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="135">
+      <c r="A135" t="n">
         <v>233</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B135" t="n">
         <v>0</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>2022-12-21 11:12:28</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>78484379</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>重庆建工第四建设有限责任公司</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -61960,51 +62017,51 @@
 设备的3%</t>
         </is>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="inlineStr">
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>6159.29</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>800.71</t>
         </is>
       </c>
-      <c r="K134" t="n">
+      <c r="K135" t="n">
         <v>6960</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="136">
+      <c r="A136" t="n">
         <v>234</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B136" t="n">
         <v>0</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>2022-12-21 11:04:06</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>78484378</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>重庆更合机电有限公司</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -62012,51 +62069,51 @@
 1台 设备的10.12%</t>
         </is>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="inlineStr">
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>6773.45</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>880.55</t>
         </is>
       </c>
-      <c r="K135" t="n">
+      <c r="K136" t="n">
         <v>7654</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="137">
+      <c r="A137" t="n">
         <v>235</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B137" t="n">
         <v>0</v>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>2022-12-21 10:15:05</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>78484377</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>中粮饲料（银川）有限公司</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -62064,51 +62121,51 @@
 设备的3%</t>
         </is>
       </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="inlineStr">
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>6398.23</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>831.77</t>
         </is>
       </c>
-      <c r="K136" t="n">
+      <c r="K137" t="n">
         <v>7230</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="138">
+      <c r="A138" t="n">
         <v>238</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B138" t="n">
         <v>0</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>2022-12-20 16:20:34</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>78484374</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>浙江华东工程建设管理有限公司</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -62116,51 +62173,51 @@
 24台 设备的22.26%</t>
         </is>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="inlineStr">
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>605398.23</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>78701.77</t>
         </is>
       </c>
-      <c r="K137" t="n">
+      <c r="K138" t="n">
         <v>684100</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="139">
+      <c r="A139" t="n">
         <v>239</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B139" t="n">
         <v>0</v>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>2022-12-20 15:19:47</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>06678713</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>盱眙富士电梯有限公司</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -62170,51 +62227,51 @@
 项目地址：盱眙县宁徐路与淮河一段交叉口</t>
         </is>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="inlineStr">
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>111504.42</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>14495.58</t>
         </is>
       </c>
-      <c r="K138" t="n">
+      <c r="K139" t="n">
         <v>126000</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="140">
+      <c r="A140" t="n">
         <v>240</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B140" t="n">
         <v>0</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>2022-12-20 14:26:35</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>78484373</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>浙江德丰科创集团有限公司</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -62222,51 +62279,51 @@
 8台设备的5%</t>
         </is>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="inlineStr">
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>26725.66</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>3474.34</t>
         </is>
       </c>
-      <c r="K139" t="n">
+      <c r="K140" t="n">
         <v>30200</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="141">
+      <c r="A141" t="n">
         <v>241</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B141" t="n">
         <v>0</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>2022-12-20 14:24:39</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>78484372</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>浙江创融实业投资有限公司</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -62274,51 +62331,51 @@
 9台 设备的20%</t>
         </is>
       </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="inlineStr">
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>150265.48</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>19534.52</t>
         </is>
       </c>
-      <c r="K140" t="n">
+      <c r="K141" t="n">
         <v>169800</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="142">
+      <c r="A142" t="n">
         <v>245</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B142" t="n">
         <v>0</v>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>2022-12-20 14:16:09</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>78484368</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>天水保障性住房建设发展有限公司</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -62326,51 +62383,51 @@
 6台设备的20%</t>
         </is>
       </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="inlineStr">
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>182654.86</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>23745.14</t>
         </is>
       </c>
-      <c r="K141" t="n">
+      <c r="K142" t="n">
         <v>206400</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="143">
+      <c r="A143" t="n">
         <v>246</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B143" t="n">
         <v>0</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>2022-12-20 14:12:25</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>78484367</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>天津蜂盛食品有限公司</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>*搬运设备*载货电梯</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士载货电梯变频控制软件V1.0_x000D_
@@ -62378,51 +62435,51 @@
 8台 设备的7.77%</t>
         </is>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="inlineStr">
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>143862.84</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>18702.16</t>
         </is>
       </c>
-      <c r="K142" t="n">
+      <c r="K143" t="n">
         <v>162565</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="144">
+      <c r="A144" t="n">
         <v>247</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B144" t="n">
         <v>0</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>2022-12-20 14:06:09</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>78484366</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>苏州市相城区人民政府漕湖街道办事处</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -62430,51 +62487,51 @@
 设备的40.27%</t>
         </is>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="inlineStr">
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>52743.36</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>6856.64</t>
         </is>
       </c>
-      <c r="K143" t="n">
+      <c r="K144" t="n">
         <v>59600</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="145">
+      <c r="A145" t="n">
         <v>248</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B145" t="n">
         <v>0</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>2022-12-20 13:55:31</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>78484365</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>陕西世丰实业集团有限公司</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>*搬运设备*乘客电梯</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>转账_x000D_
 含：恒达富士乘客电梯变频控制软件V1.0_x000D_
@@ -62482,20 +62539,20 @@
 1台 设备的13.73%</t>
         </is>
       </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="inlineStr">
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>20648.99</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>2684.37</t>
         </is>
       </c>
-      <c r="K144" t="n">
+      <c r="K145" t="n">
         <v>23333.36</v>
       </c>
     </row>
